--- a/server/storage/private/report/Playtorium_Summary_Leave.xlsx
+++ b/server/storage/private/report/Playtorium_Summary_Leave.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Leave" sheetId="1" r:id="rId1"/>
@@ -203,13 +203,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,6 +268,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -277,25 +283,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,7 +582,7 @@
   <dimension ref="B1:BG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -609,8 +609,8 @@
       <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="4" spans="2:59" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
@@ -628,16 +628,16 @@
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -712,7 +712,7 @@
       <c r="BD4" s="7"/>
       <c r="BE4" s="7"/>
       <c r="BF4" s="7"/>
-      <c r="BG4" s="8" t="s">
+      <c r="BG4" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -722,10 +722,10 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="15"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
@@ -870,17 +870,10 @@
       <c r="BF5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BG5" s="9"/>
+      <c r="BG5" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="AU4:AX4"/>
     <mergeCell ref="AY4:BB4"/>
     <mergeCell ref="BC4:BF4"/>
@@ -897,6 +890,13 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/storage/private/report/Playtorium_Summary_Leave.xlsx
+++ b/server/storage/private/report/Playtorium_Summary_Leave.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Leave" sheetId="1" r:id="rId1"/>
+    <sheet name="Holiday" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>Emp.ID</t>
   </si>
@@ -115,13 +116,22 @@
   </si>
   <si>
     <t xml:space="preserve"> as of   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday  </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Date Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +175,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,7 +262,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -265,6 +282,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,28 +303,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -609,123 +638,123 @@
       <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="4" spans="2:59" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7" t="s">
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7" t="s">
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7" t="s">
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7" t="s">
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7" t="s">
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7" t="s">
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7" t="s">
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7" t="s">
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7" t="s">
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7"/>
-      <c r="BC4" s="7" t="s">
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="16" t="s">
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:59" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
@@ -870,7 +899,7 @@
       <c r="BF5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BG5" s="17"/>
+      <c r="BG5" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -900,4 +929,39 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="20.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>